--- a/other/input/financial/Baseline Income History.xlsx
+++ b/other/input/financial/Baseline Income History.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\Active Projects\Agency Baseline\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx\other\input\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EB091-AC0B-4C4C-96BA-4CDDE8FBAF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20925" yWindow="615" windowWidth="20730" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20928" yWindow="612" windowWidth="20736" windowHeight="12528"/>
   </bookViews>
   <sheets>
     <sheet name="income_history" sheetId="1" r:id="rId1"/>
     <sheet name="swwtp_estimate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Contractual Expense (paid directly)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -100,9 +99,6 @@
   </si>
   <si>
     <t>Kenai Watershed Forum</t>
-  </si>
-  <si>
-    <t>09/13/19</t>
   </si>
   <si>
     <t>Agency Baseline</t>
@@ -217,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -640,45 +636,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="12.44140625" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X2" s="3">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8">
         <v>2005</v>
       </c>
@@ -740,9 +736,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>5000</v>
@@ -800,11 +796,11 @@
         <v>5000</v>
       </c>
       <c r="X6" s="1">
-        <f>SUM(E6:T6)</f>
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+        <f>SUM(E6:W6)</f>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,11 +834,11 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1">
-        <f>SUM(E7:S7)</f>
+        <f>SUM(E7:W7)</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -870,11 +866,11 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1">
-        <f>SUM(E8:S8)</f>
+        <f>SUM(E8:W8)</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,7 +934,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,10 +980,12 @@
       <c r="V10" s="1">
         <v>5000</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>5000</v>
+      </c>
       <c r="X10" s="1">
-        <f>SUM(E10:V10)</f>
-        <v>65000</v>
+        <f>SUM(E10:W10)</f>
+        <v>70000</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -996,7 +994,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>1418.52</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,14 +1064,14 @@
         <v>5000</v>
       </c>
       <c r="X12" s="1">
-        <f>SUM(E12:S12)</f>
-        <v>15995.3</v>
+        <f>SUM(E12:W12)</f>
+        <v>35995.300000000003</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,13 +1113,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1">
-        <f>SUM(E13:S13)</f>
+        <f>SUM(E13:W13)</f>
         <v>44566</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V14" s="1">
         <v>18500</v>
@@ -1130,16 +1128,16 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>7</v>
       </c>
@@ -1191,11 +1189,11 @@
         <v>4500</v>
       </c>
       <c r="X17" s="13">
-        <f>SUM(E17:T17)</f>
-        <v>63500</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <f>SUM(E17:W17)</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
@@ -1273,39 +1271,39 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="0"/>
-        <v>360479.81999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399979.82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D27" s="14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E27" s="14">
         <v>0</v>
@@ -1359,13 +1357,13 @@
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14">
-        <f>ROUND(SUM(E27:S27),5)</f>
+        <f>ROUND(SUM(E27:W27),5)</f>
         <v>1592.24</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="14">
         <v>13034.6</v>
@@ -1425,11 +1423,11 @@
         <v>13655</v>
       </c>
       <c r="X28" s="14">
-        <f>ROUND(SUM(E28:S28),5)</f>
-        <v>152198.72</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+        <f>ROUND(SUM(E28:W28),5)</f>
+        <v>191348.2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D29" s="14" t="s">
         <v>0</v>
       </c>
@@ -1506,16 +1504,16 @@
         <v>5000</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="1"/>
-        <v>60561.3</v>
+        <f t="shared" ref="X29:X40" si="2">ROUND(SUM(E29:W29),5)</f>
+        <v>80561.3</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D30" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="14">
         <v>0</v>
@@ -1575,13 +1573,13 @@
         <v>30.96</v>
       </c>
       <c r="X30" s="14">
-        <f>ROUND(SUM(E30:S30),5)</f>
-        <v>245.93</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>371.88</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1">
         <v>736.80000000000007</v>
@@ -1637,13 +1635,14 @@
       <c r="W31" s="1">
         <v>4585.82</v>
       </c>
-      <c r="X31" s="1">
-        <v>52682.159999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="X31" s="14">
+        <f t="shared" si="2"/>
+        <v>66411.64</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D32" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="14">
         <v>0</v>
@@ -1701,13 +1700,13 @@
         <v>147.6</v>
       </c>
       <c r="X32" s="14">
-        <f>ROUND(SUM(E32:S32),5)</f>
-        <v>374.47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>709.77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D33" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="14">
         <v>0</v>
@@ -1763,13 +1762,13 @@
       </c>
       <c r="W33" s="14"/>
       <c r="X33" s="14">
-        <f>ROUND(SUM(E33:S33),5)</f>
-        <v>664</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D34" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="14">
         <v>32.08</v>
@@ -1829,13 +1828,13 @@
         <v>485.63</v>
       </c>
       <c r="X34" s="14">
-        <f>ROUND(SUM(E34:S34),5)</f>
-        <v>6589.8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>10890.22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D35" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -1862,11 +1861,20 @@
       <c r="W35" s="14">
         <v>993.19</v>
       </c>
-      <c r="X35" s="14"/>
-    </row>
-    <row r="37" spans="3:24" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="X35" s="14">
+        <f t="shared" si="2"/>
+        <v>1108.31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>11.34</v>
@@ -1916,13 +1924,14 @@
       <c r="T37" s="1">
         <v>0</v>
       </c>
-      <c r="X37" s="1">
-        <v>1827.0099999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="X37" s="14">
+        <f t="shared" si="2"/>
+        <v>1827.01</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D38" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="14">
         <v>0</v>
@@ -1982,178 +1991,181 @@
         <v>5054.1400000000003</v>
       </c>
       <c r="X38" s="14">
-        <f>ROUND(SUM(E38:S38),5)</f>
-        <v>17640.88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>33995.54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X39" s="14"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C40" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="15">
         <f>ROUND(SUM(E26:E39),5)</f>
         <v>24217.02</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" ref="F40:X40" si="2">ROUND(SUM(F26:F39),5)</f>
+        <f t="shared" ref="F40:X40" si="3">ROUND(SUM(F26:F39),5)</f>
         <v>16487.87</v>
       </c>
       <c r="G40" s="15">
+        <f t="shared" si="3"/>
+        <v>23613.66</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="3"/>
+        <v>21508.76</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" si="3"/>
+        <v>11812.77</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="3"/>
+        <v>19785.849999999999</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="3"/>
+        <v>15799.53</v>
+      </c>
+      <c r="L40" s="15">
+        <f t="shared" si="3"/>
+        <v>17726.689999999999</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="3"/>
+        <v>19495.16</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="3"/>
+        <v>22556.62</v>
+      </c>
+      <c r="O40" s="15">
+        <f t="shared" si="3"/>
+        <v>18718.28</v>
+      </c>
+      <c r="P40" s="15">
+        <f t="shared" si="3"/>
+        <v>7359.55</v>
+      </c>
+      <c r="Q40" s="15">
+        <f t="shared" si="3"/>
+        <v>32177.9</v>
+      </c>
+      <c r="R40" s="15">
+        <f t="shared" si="3"/>
+        <v>30067.4</v>
+      </c>
+      <c r="S40" s="15">
+        <f t="shared" si="3"/>
+        <v>13049.45</v>
+      </c>
+      <c r="T40" s="15">
+        <f t="shared" si="3"/>
+        <v>14956.53</v>
+      </c>
+      <c r="U40" s="15">
+        <f t="shared" si="3"/>
+        <v>19208.38</v>
+      </c>
+      <c r="V40" s="15">
+        <f t="shared" si="3"/>
+        <v>31125.35</v>
+      </c>
+      <c r="W40" s="15">
+        <f t="shared" si="3"/>
+        <v>29952.34</v>
+      </c>
+      <c r="X40" s="14">
         <f t="shared" si="2"/>
-        <v>23613.66</v>
-      </c>
-      <c r="H40" s="15">
-        <f t="shared" si="2"/>
-        <v>21508.76</v>
-      </c>
-      <c r="I40" s="15">
-        <f t="shared" si="2"/>
-        <v>11812.77</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="2"/>
-        <v>19785.849999999999</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="2"/>
-        <v>15799.53</v>
-      </c>
-      <c r="L40" s="15">
-        <f t="shared" si="2"/>
-        <v>17726.689999999999</v>
-      </c>
-      <c r="M40" s="15">
-        <f t="shared" si="2"/>
-        <v>19495.16</v>
-      </c>
-      <c r="N40" s="15">
-        <f t="shared" si="2"/>
-        <v>22556.62</v>
-      </c>
-      <c r="O40" s="15">
-        <f t="shared" si="2"/>
-        <v>18718.28</v>
-      </c>
-      <c r="P40" s="15">
-        <f t="shared" si="2"/>
-        <v>7359.55</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="2"/>
-        <v>32177.9</v>
-      </c>
-      <c r="R40" s="15">
-        <f t="shared" si="2"/>
-        <v>30067.4</v>
-      </c>
-      <c r="S40" s="15">
-        <f t="shared" si="2"/>
-        <v>13049.45</v>
-      </c>
-      <c r="T40" s="15">
-        <f t="shared" si="2"/>
-        <v>14956.53</v>
-      </c>
-      <c r="U40" s="15">
-        <f t="shared" si="2"/>
-        <v>19208.38</v>
-      </c>
-      <c r="V40" s="15">
-        <f t="shared" si="2"/>
-        <v>31125.35</v>
-      </c>
-      <c r="W40" s="15">
-        <f t="shared" si="2"/>
-        <v>29952.34</v>
-      </c>
-      <c r="X40" s="15">
-        <f t="shared" si="2"/>
-        <v>294376.51</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>389619.11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D42" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16">
         <f>E19-E40</f>
         <v>-3078.0200000000004</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" ref="F42:X42" si="3">F19-F40</f>
+        <f t="shared" ref="F42:X42" si="4">F19-F40</f>
         <v>5512.130000000001</v>
       </c>
       <c r="G42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4047.0600000000013</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7008.7599999999984</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8687.23</v>
       </c>
       <c r="J42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3546.1500000000015</v>
       </c>
       <c r="K42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7320.9699999999993</v>
       </c>
       <c r="L42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6884.8100000000013</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3904.380000000001</v>
       </c>
       <c r="N42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3591.7599999999984</v>
       </c>
       <c r="O42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6218.2799999999988</v>
       </c>
       <c r="P42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15140.45</v>
       </c>
       <c r="Q42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7002.0000000000036</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6081</v>
       </c>
       <c r="S42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9950.5499999999993</v>
       </c>
       <c r="T42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6043.4699999999993</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6208.380000000001</v>
       </c>
       <c r="V42" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5374.6500000000015</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="3"/>
-        <v>-1952.3400000000001</v>
+        <f t="shared" si="4"/>
+        <v>3047.66</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="3"/>
-        <v>66103.309999999939</v>
+        <f t="shared" si="4"/>
+        <v>10360.710000000021</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE50B29C-93AD-4E2C-AACB-1A5AB2BDFBBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2177,48 +2189,48 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="32.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="13.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="13.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="10.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.109375" style="19"/>
+    <col min="2" max="2" width="32.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="19"/>
+    <col min="4" max="4" width="13.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="13.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="19"/>
+    <col min="9" max="9" width="10.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="19">
         <v>40</v>
@@ -2227,19 +2239,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="19">
         <f>C4*D4</f>
         <v>960</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="19">
         <v>71.25</v>
@@ -2248,19 +2260,19 @@
         <v>24</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="19">
         <f>C5*D5</f>
         <v>1710</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -2269,19 +2281,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="19">
         <f>C6*D6</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/financial/Baseline Income History.xlsx
+++ b/other/input/financial/Baseline Income History.xlsx
@@ -640,8 +640,8 @@
   <sheetPr published="0"/>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1184,13 +1184,15 @@
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="V17" s="13">
+        <v>4500</v>
+      </c>
       <c r="W17" s="13">
         <v>4500</v>
       </c>
       <c r="X17" s="13">
         <f>SUM(E17:W17)</f>
-        <v>68000</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="19" spans="3:25" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1267,7 +1269,7 @@
       </c>
       <c r="V19" s="11">
         <f t="shared" si="0"/>
-        <v>36500</v>
+        <v>41000</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="0"/>
@@ -1275,7 +1277,7 @@
       </c>
       <c r="X19" s="11">
         <f t="shared" si="0"/>
-        <v>399979.82</v>
+        <v>404479.82</v>
       </c>
     </row>
     <row r="22" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1436,7 +1438,7 @@
         <v>11139</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" ref="F29:X29" si="1">F12+F13</f>
+        <f t="shared" ref="F29:S29" si="1">F12+F13</f>
         <v>0</v>
       </c>
       <c r="G29" s="14">
@@ -2007,7 +2009,7 @@
         <v>24217.02</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" ref="F40:X40" si="3">ROUND(SUM(F26:F39),5)</f>
+        <f t="shared" ref="F40:W40" si="3">ROUND(SUM(F26:F39),5)</f>
         <v>16487.87</v>
       </c>
       <c r="G40" s="15">
@@ -2157,7 +2159,7 @@
       </c>
       <c r="V42" s="16">
         <f t="shared" si="4"/>
-        <v>5374.6500000000015</v>
+        <v>9874.6500000000015</v>
       </c>
       <c r="W42" s="16">
         <f t="shared" si="4"/>
@@ -2165,7 +2167,7 @@
       </c>
       <c r="X42" s="16">
         <f t="shared" si="4"/>
-        <v>10360.710000000021</v>
+        <v>14860.710000000021</v>
       </c>
     </row>
   </sheetData>
